--- a/DATA_goal/Junction_Flooding_411.xlsx
+++ b/DATA_goal/Junction_Flooding_411.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="5" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.79861111111</v>
+        <v>45092.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>20.178</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>13.652</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.068</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>42.752</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>34.691</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>15.879</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>51.007</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>24.432</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>10.251</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>15.607</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>16.868</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>17.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>5.069</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>22.094</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>13.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.498</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.451</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>232.996</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>43.923</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>14.575</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>29.082</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>14.996</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>25.159</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>12.874</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>11.654</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>13.651</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>17.331</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.457</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>45.214</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>8.105</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>18.222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.80555555555</v>
+        <v>45092.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>24.021</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>17.339</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>2.064</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>51.919</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>42.489</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>18.903</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>72.117</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>29.086</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>12.736</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>18.975</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>20.81</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>21.827</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>6.038</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>18.798</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>26.631</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>15.959</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.631</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>278.82</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>52.574</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>17.351</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>35.174</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>18.451</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>3.055</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>34.987</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>15.326</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>13.72</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>16.102</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>21.639</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>65.511</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>9.738</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>21.692</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.8125</v>
+        <v>45092.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>11.05</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>7.84</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>1.141</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>23.862</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>19.38</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>8.696</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>37.523</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>13.38</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>5.809</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>8.558999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>10.003</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>8.647</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>12.214</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>7.477</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>1.012</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.666</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>124.313</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>24.318</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>7.982</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>16.147</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0</v>
+        <v>8.471</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0</v>
+        <v>1.542</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0</v>
+        <v>17.461</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>7.05</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>6.383</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>7.479</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0</v>
+        <v>34.204</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>4.425</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>9.978999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.81944444445</v>
+        <v>45092.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0</v>
+        <v>21.62</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0</v>
+        <v>15.9</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0</v>
+        <v>46.92</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>17.01</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0</v>
+        <v>64.26000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0</v>
+        <v>26.18</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0</v>
+        <v>17.22</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0</v>
+        <v>18.85</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0</v>
+        <v>19.83</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0</v>
+        <v>5.43</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0</v>
+        <v>16.92</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0</v>
+        <v>24.05</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0</v>
+        <v>14.27</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0</v>
+        <v>250.2</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0</v>
+        <v>47.27</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0</v>
+        <v>15.62</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0</v>
+        <v>31.77</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0</v>
+        <v>16.72</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0</v>
+        <v>31.32</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0</v>
+        <v>13.79</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0</v>
+        <v>19.71</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0</v>
+        <v>58.19</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.82637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>59.76</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.05</v>
+        <v>19.52</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_411.xlsx
+++ b/DATA_goal/Junction_Flooding_411.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
-    <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
-    <col width="7" customWidth="1" min="18" max="18"/>
-    <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
-    <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
-    <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="18" max="18"/>
+    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45092.50694444445</v>
+        <v>44781.79861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>20.178</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.652</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.068</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>42.752</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>34.691</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.879</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>51.007</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>24.432</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.251</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.607</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.868</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.597</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.069</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.79</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>22.094</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.41</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.498</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.451</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>232.996</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>43.923</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.575</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>29.082</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.996</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.13</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>25.159</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.874</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.654</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.651</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.331</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.457</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>45.214</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.105</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45092.51388888889</v>
+        <v>44781.80555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>24.021</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.339</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.064</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>51.919</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>42.489</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.903</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>72.117</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>29.086</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.736</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.975</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.81</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.827</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.038</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.798</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.631</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.959</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.631</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>278.82</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>52.574</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.351</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>35.174</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.451</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>3.055</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>34.987</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.326</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.72</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>16.102</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.639</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.266</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>65.511</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.738</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45092.52083333334</v>
+        <v>44781.8125</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.05</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.84</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.141</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>23.862</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.38</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.696</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>37.523</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.38</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.809</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.558999999999999</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.590999999999999</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.003</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.647</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.214</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.477</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.012</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.666</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>124.313</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>24.318</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.982</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.147</v>
+        <v>0</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.471</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.542</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>17.461</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.05</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.383</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.479</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.928000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.773</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>34.204</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.425</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.978999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45092.52777777778</v>
+        <v>44781.81944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.62</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.9</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>46.92</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.01</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>64.26000000000001</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.18</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.22</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.85</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.83</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.43</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.92</v>
+        <v>0</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.05</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.27</v>
+        <v>0</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>250.2</v>
+        <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>47.27</v>
+        <v>0</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.62</v>
+        <v>0</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>31.77</v>
+        <v>0</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>16.72</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.53</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>31.32</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.79</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>19.71</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>58.19</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.52</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.82637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>59.76</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.05</v>
       </c>
     </row>
   </sheetData>
